--- a/po_analysis_by_asin/B0CSJYJRKD_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJYJRKD_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>150</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>66</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>186</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>156</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>454</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>258</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>104</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>8</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>148</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>184</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>116</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>156</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>160</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>28</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>52</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>512</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>4</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>60</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>108</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>44</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>52</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>156</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>20</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>184</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>324</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>52</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>216</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>342</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>712</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>260</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>308</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>400</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>520</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>264</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>684</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>52</v>

--- a/po_analysis_by_asin/B0CSJYJRKD_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJYJRKD_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,209 +484,193 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>454</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>258</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>148</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>184</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>160</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>44</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45592.99999999999</v>
-      </c>
-      <c r="B30" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45613.99999999999</v>
-      </c>
-      <c r="B31" t="n">
         <v>52</v>
       </c>
     </row>
@@ -701,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,73 +723,65 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>712</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45412.99999999999</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45443.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>260</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>308</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45504.99999999999</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45535.99999999999</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>520</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565.99999999999</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>264</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45596.99999999999</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45626.99999999999</v>
-      </c>
-      <c r="B12" t="n">
         <v>52</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CSJYJRKD_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJYJRKD_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -701,7 +702,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -783,6 +784,551 @@
       </c>
       <c r="B11" t="n">
         <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>109</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-25.22563873156716</v>
+      </c>
+      <c r="D2" t="n">
+        <v>243.8570249987102</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>109</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-30.11607340786951</v>
+      </c>
+      <c r="D3" t="n">
+        <v>252.3513012732099</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>109</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-21.93844892560523</v>
+      </c>
+      <c r="D4" t="n">
+        <v>250.3002281672516</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>109</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-23.70949343650914</v>
+      </c>
+      <c r="D5" t="n">
+        <v>251.2737917969661</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>109</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-29.85032916059425</v>
+      </c>
+      <c r="D6" t="n">
+        <v>250.9343561198435</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>109</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-28.99342454607557</v>
+      </c>
+      <c r="D7" t="n">
+        <v>239.0859985781612</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>109</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-35.16149491400288</v>
+      </c>
+      <c r="D8" t="n">
+        <v>242.2289024943926</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-34.57466899164118</v>
+      </c>
+      <c r="D9" t="n">
+        <v>250.5907523090019</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>109</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-32.1857031538178</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.5043278590333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>109</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-34.5710882324387</v>
+      </c>
+      <c r="D11" t="n">
+        <v>250.7507091172172</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>109</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-26.52098203853965</v>
+      </c>
+      <c r="D12" t="n">
+        <v>244.9597563404804</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>109</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-35.15875189916346</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.6230281445864</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>109</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-22.69854492279514</v>
+      </c>
+      <c r="D14" t="n">
+        <v>247.6112238889181</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>109</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-35.77453030178589</v>
+      </c>
+      <c r="D15" t="n">
+        <v>231.9659570096558</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>109</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-39.29431225312685</v>
+      </c>
+      <c r="D16" t="n">
+        <v>245.494812088982</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>109</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-38.96202078818314</v>
+      </c>
+      <c r="D17" t="n">
+        <v>249.2813911520444</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>109</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-46.60554640719557</v>
+      </c>
+      <c r="D18" t="n">
+        <v>256.6907419040899</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>109</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-29.98142188986229</v>
+      </c>
+      <c r="D19" t="n">
+        <v>251.1040686391097</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>109</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-29.48142784866822</v>
+      </c>
+      <c r="D20" t="n">
+        <v>256.918555746498</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>109</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-32.87340733705599</v>
+      </c>
+      <c r="D21" t="n">
+        <v>248.9689496244465</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>109</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-33.39193414953618</v>
+      </c>
+      <c r="D22" t="n">
+        <v>252.3465813238842</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>109</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-30.94876690034762</v>
+      </c>
+      <c r="D23" t="n">
+        <v>243.2341447741742</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>109</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-24.02888754333092</v>
+      </c>
+      <c r="D24" t="n">
+        <v>258.1765743470375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>109</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-23.77973878844077</v>
+      </c>
+      <c r="D25" t="n">
+        <v>255.2814454999216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>109</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-29.15431789917062</v>
+      </c>
+      <c r="D26" t="n">
+        <v>243.1660047897002</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>109</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-20.9084928164606</v>
+      </c>
+      <c r="D27" t="n">
+        <v>251.6956043051875</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>109</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-19.94249705830782</v>
+      </c>
+      <c r="D28" t="n">
+        <v>244.6827829696033</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>109</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-38.26938141926184</v>
+      </c>
+      <c r="D29" t="n">
+        <v>245.9123938301348</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>109</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-30.58434904481534</v>
+      </c>
+      <c r="D30" t="n">
+        <v>243.9333757531647</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>109</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-30.07381821223786</v>
+      </c>
+      <c r="D31" t="n">
+        <v>251.8897198301706</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>109</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-34.59312990036802</v>
+      </c>
+      <c r="D32" t="n">
+        <v>237.9304646106509</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>109</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-30.51372791617973</v>
+      </c>
+      <c r="D33" t="n">
+        <v>242.8537600405748</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>109</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-23.45772408219868</v>
+      </c>
+      <c r="D34" t="n">
+        <v>238.0034495813442</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>109</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-29.13951156336996</v>
+      </c>
+      <c r="D35" t="n">
+        <v>245.7586260358383</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>109</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-38.29604935274232</v>
+      </c>
+      <c r="D36" t="n">
+        <v>248.0131661029697</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>109</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-31.32543924596219</v>
+      </c>
+      <c r="D37" t="n">
+        <v>252.620959627349</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSJYJRKD_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJYJRKD_po_data.xlsx
@@ -797,7 +797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,16 +816,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -834,12 +824,6 @@
       <c r="B2" t="n">
         <v>109</v>
       </c>
-      <c r="C2" t="n">
-        <v>-25.22563873156716</v>
-      </c>
-      <c r="D2" t="n">
-        <v>243.8570249987102</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -848,12 +832,6 @@
       <c r="B3" t="n">
         <v>109</v>
       </c>
-      <c r="C3" t="n">
-        <v>-30.11607340786951</v>
-      </c>
-      <c r="D3" t="n">
-        <v>252.3513012732099</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -862,12 +840,6 @@
       <c r="B4" t="n">
         <v>109</v>
       </c>
-      <c r="C4" t="n">
-        <v>-21.93844892560523</v>
-      </c>
-      <c r="D4" t="n">
-        <v>250.3002281672516</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -876,12 +848,6 @@
       <c r="B5" t="n">
         <v>109</v>
       </c>
-      <c r="C5" t="n">
-        <v>-23.70949343650914</v>
-      </c>
-      <c r="D5" t="n">
-        <v>251.2737917969661</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -890,12 +856,6 @@
       <c r="B6" t="n">
         <v>109</v>
       </c>
-      <c r="C6" t="n">
-        <v>-29.85032916059425</v>
-      </c>
-      <c r="D6" t="n">
-        <v>250.9343561198435</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -904,12 +864,6 @@
       <c r="B7" t="n">
         <v>109</v>
       </c>
-      <c r="C7" t="n">
-        <v>-28.99342454607557</v>
-      </c>
-      <c r="D7" t="n">
-        <v>239.0859985781612</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -918,12 +872,6 @@
       <c r="B8" t="n">
         <v>109</v>
       </c>
-      <c r="C8" t="n">
-        <v>-35.16149491400288</v>
-      </c>
-      <c r="D8" t="n">
-        <v>242.2289024943926</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -932,12 +880,6 @@
       <c r="B9" t="n">
         <v>109</v>
       </c>
-      <c r="C9" t="n">
-        <v>-34.57466899164118</v>
-      </c>
-      <c r="D9" t="n">
-        <v>250.5907523090019</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -946,12 +888,6 @@
       <c r="B10" t="n">
         <v>109</v>
       </c>
-      <c r="C10" t="n">
-        <v>-32.1857031538178</v>
-      </c>
-      <c r="D10" t="n">
-        <v>245.5043278590333</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -960,12 +896,6 @@
       <c r="B11" t="n">
         <v>109</v>
       </c>
-      <c r="C11" t="n">
-        <v>-34.5710882324387</v>
-      </c>
-      <c r="D11" t="n">
-        <v>250.7507091172172</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -974,12 +904,6 @@
       <c r="B12" t="n">
         <v>109</v>
       </c>
-      <c r="C12" t="n">
-        <v>-26.52098203853965</v>
-      </c>
-      <c r="D12" t="n">
-        <v>244.9597563404804</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -988,12 +912,6 @@
       <c r="B13" t="n">
         <v>109</v>
       </c>
-      <c r="C13" t="n">
-        <v>-35.15875189916346</v>
-      </c>
-      <c r="D13" t="n">
-        <v>243.6230281445864</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1002,12 +920,6 @@
       <c r="B14" t="n">
         <v>109</v>
       </c>
-      <c r="C14" t="n">
-        <v>-22.69854492279514</v>
-      </c>
-      <c r="D14" t="n">
-        <v>247.6112238889181</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1016,12 +928,6 @@
       <c r="B15" t="n">
         <v>109</v>
       </c>
-      <c r="C15" t="n">
-        <v>-35.77453030178589</v>
-      </c>
-      <c r="D15" t="n">
-        <v>231.9659570096558</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1030,12 +936,6 @@
       <c r="B16" t="n">
         <v>109</v>
       </c>
-      <c r="C16" t="n">
-        <v>-39.29431225312685</v>
-      </c>
-      <c r="D16" t="n">
-        <v>245.494812088982</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1044,12 +944,6 @@
       <c r="B17" t="n">
         <v>109</v>
       </c>
-      <c r="C17" t="n">
-        <v>-38.96202078818314</v>
-      </c>
-      <c r="D17" t="n">
-        <v>249.2813911520444</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1058,12 +952,6 @@
       <c r="B18" t="n">
         <v>109</v>
       </c>
-      <c r="C18" t="n">
-        <v>-46.60554640719557</v>
-      </c>
-      <c r="D18" t="n">
-        <v>256.6907419040899</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1072,12 +960,6 @@
       <c r="B19" t="n">
         <v>109</v>
       </c>
-      <c r="C19" t="n">
-        <v>-29.98142188986229</v>
-      </c>
-      <c r="D19" t="n">
-        <v>251.1040686391097</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1086,12 +968,6 @@
       <c r="B20" t="n">
         <v>109</v>
       </c>
-      <c r="C20" t="n">
-        <v>-29.48142784866822</v>
-      </c>
-      <c r="D20" t="n">
-        <v>256.918555746498</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1100,12 +976,6 @@
       <c r="B21" t="n">
         <v>109</v>
       </c>
-      <c r="C21" t="n">
-        <v>-32.87340733705599</v>
-      </c>
-      <c r="D21" t="n">
-        <v>248.9689496244465</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1114,12 +984,6 @@
       <c r="B22" t="n">
         <v>109</v>
       </c>
-      <c r="C22" t="n">
-        <v>-33.39193414953618</v>
-      </c>
-      <c r="D22" t="n">
-        <v>252.3465813238842</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1128,12 +992,6 @@
       <c r="B23" t="n">
         <v>109</v>
       </c>
-      <c r="C23" t="n">
-        <v>-30.94876690034762</v>
-      </c>
-      <c r="D23" t="n">
-        <v>243.2341447741742</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1142,12 +1000,6 @@
       <c r="B24" t="n">
         <v>109</v>
       </c>
-      <c r="C24" t="n">
-        <v>-24.02888754333092</v>
-      </c>
-      <c r="D24" t="n">
-        <v>258.1765743470375</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1156,12 +1008,6 @@
       <c r="B25" t="n">
         <v>109</v>
       </c>
-      <c r="C25" t="n">
-        <v>-23.77973878844077</v>
-      </c>
-      <c r="D25" t="n">
-        <v>255.2814454999216</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1170,12 +1016,6 @@
       <c r="B26" t="n">
         <v>109</v>
       </c>
-      <c r="C26" t="n">
-        <v>-29.15431789917062</v>
-      </c>
-      <c r="D26" t="n">
-        <v>243.1660047897002</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1184,12 +1024,6 @@
       <c r="B27" t="n">
         <v>109</v>
       </c>
-      <c r="C27" t="n">
-        <v>-20.9084928164606</v>
-      </c>
-      <c r="D27" t="n">
-        <v>251.6956043051875</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1198,12 +1032,6 @@
       <c r="B28" t="n">
         <v>109</v>
       </c>
-      <c r="C28" t="n">
-        <v>-19.94249705830782</v>
-      </c>
-      <c r="D28" t="n">
-        <v>244.6827829696033</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1212,12 +1040,6 @@
       <c r="B29" t="n">
         <v>109</v>
       </c>
-      <c r="C29" t="n">
-        <v>-38.26938141926184</v>
-      </c>
-      <c r="D29" t="n">
-        <v>245.9123938301348</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1226,12 +1048,6 @@
       <c r="B30" t="n">
         <v>109</v>
       </c>
-      <c r="C30" t="n">
-        <v>-30.58434904481534</v>
-      </c>
-      <c r="D30" t="n">
-        <v>243.9333757531647</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1240,12 +1056,6 @@
       <c r="B31" t="n">
         <v>109</v>
       </c>
-      <c r="C31" t="n">
-        <v>-30.07381821223786</v>
-      </c>
-      <c r="D31" t="n">
-        <v>251.8897198301706</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1254,12 +1064,6 @@
       <c r="B32" t="n">
         <v>109</v>
       </c>
-      <c r="C32" t="n">
-        <v>-34.59312990036802</v>
-      </c>
-      <c r="D32" t="n">
-        <v>237.9304646106509</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1268,12 +1072,6 @@
       <c r="B33" t="n">
         <v>109</v>
       </c>
-      <c r="C33" t="n">
-        <v>-30.51372791617973</v>
-      </c>
-      <c r="D33" t="n">
-        <v>242.8537600405748</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1282,12 +1080,6 @@
       <c r="B34" t="n">
         <v>109</v>
       </c>
-      <c r="C34" t="n">
-        <v>-23.45772408219868</v>
-      </c>
-      <c r="D34" t="n">
-        <v>238.0034495813442</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1296,12 +1088,6 @@
       <c r="B35" t="n">
         <v>109</v>
       </c>
-      <c r="C35" t="n">
-        <v>-29.13951156336996</v>
-      </c>
-      <c r="D35" t="n">
-        <v>245.7586260358383</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1310,12 +1096,6 @@
       <c r="B36" t="n">
         <v>109</v>
       </c>
-      <c r="C36" t="n">
-        <v>-38.29604935274232</v>
-      </c>
-      <c r="D36" t="n">
-        <v>248.0131661029697</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1323,12 +1103,6 @@
       </c>
       <c r="B37" t="n">
         <v>109</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-31.32543924596219</v>
-      </c>
-      <c r="D37" t="n">
-        <v>252.620959627349</v>
       </c>
     </row>
   </sheetData>
